--- a/biology/Botanique/Baume_de_Galaad_(homonymie)/Baume_de_Galaad_(homonymie).xlsx
+++ b/biology/Botanique/Baume_de_Galaad_(homonymie)/Baume_de_Galaad_(homonymie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les expressions baume de Galaad et baume de Giléad peuvent désigner plusieurs produits et, par métonymie, aux plantes qui les produisent.
-Le baume de Galaad est une résine aromatique citée dans la Bible et qui était extraite d'un arbre cultivé en Judée, dans le « pays de Galaad »[1].
-Les botanistes du XVIIIe siècle ont reconnu l'espèce Commiphora gileadensis, le Baumier de Galaad, comme la source probable de cette résine[1].
+Le baume de Galaad est une résine aromatique citée dans la Bible et qui était extraite d'un arbre cultivé en Judée, dans le « pays de Galaad ».
+Les botanistes du XVIIIe siècle ont reconnu l'espèce Commiphora gileadensis, le Baumier de Galaad, comme la source probable de cette résine.
 Par analogie avec la nature et le parfum de cette résine mythique, d'autres plantes ont reçu ce nom :
-la cédronelle (Cedronella canariensis) est aussi appelée baume de Galaad[2] ;
-le baume du Canada, produit par le sapin baumier (Abies balsamea), était vendu en Angleterre et aux États-Unis sous le nom de baume de Giléad[3] ;
-le dattier du désert (Balanites aegyptiaca) est aussi connu sous le nom de faux-baumier de Galaad[4] ;
-Populus x jackii est appelé peuplier de Giléad ou baumier de Giléad[5].</t>
+la cédronelle (Cedronella canariensis) est aussi appelée baume de Galaad ;
+le baume du Canada, produit par le sapin baumier (Abies balsamea), était vendu en Angleterre et aux États-Unis sous le nom de baume de Giléad ;
+le dattier du désert (Balanites aegyptiaca) est aussi connu sous le nom de faux-baumier de Galaad ;
+Populus x jackii est appelé peuplier de Giléad ou baumier de Giléad.</t>
         </is>
       </c>
     </row>
